--- a/xlsx/恺撒_intext.xlsx
+++ b/xlsx/恺撒_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="389">
   <si>
     <t>恺撒</t>
   </si>
@@ -29,13 +29,13 @@
     <t>凯撒 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_政治學_恺撒</t>
+    <t>政策_政策_政治学_恺撒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%B5%AE%E5%AE%AE</t>
   </si>
   <si>
-    <t>羅浮宮</t>
+    <t>罗浮宫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -101,7 +101,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%86%E5%9C%96%E6%96%AF%C2%B7%E8%B2%BB%E9%82%8A%C2%B7%E9%A6%AC%E5%85%8B%E8%A5%BF%E5%A7%86%E6%96%AF</t>
   </si>
   <si>
-    <t>昆圖斯·費邊·馬克西姆斯</t>
+    <t>昆图斯·费边·马克西姆斯</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Publius_Servilius_Vatia_Isauricus_(consul_48_BC)</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E7%BE%85%E9%A6%AC%E5%AE%97%E6%95%99</t>
   </si>
   <si>
-    <t>古羅馬宗教</t>
+    <t>古罗马宗教</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E6%96%87</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E7%9A%87%E5%B8%9D</t>
   </si>
   <si>
-    <t>羅馬皇帝</t>
+    <t>罗马皇帝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E4%B8%81%E8%AF%AD</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%8A%99%E8%98%BF%E9%BB%9B%E8%92%82</t>
   </si>
   <si>
-    <t>阿芙蘿黛蒂</t>
+    <t>阿芙萝黛蒂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E6%B6%85%E9%98%BF%E6%96%AF</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%84%E8%BE%AF%E8%A1%93</t>
   </si>
   <si>
-    <t>雄辯術</t>
+    <t>雄辩术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%B2%E5%AD%A6</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A8%8E%E9%A6%AC</t>
   </si>
   <si>
-    <t>騎馬</t>
+    <t>骑马</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%89%91%E6%9C%AF</t>
@@ -503,7 +503,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E6%8F%90%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>比提尼亞</t>
+    <t>比提尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E6%81%8B</t>
@@ -545,13 +545,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98%E4%BA%BA</t>
   </si>
   <si>
-    <t>希臘人</t>
+    <t>希腊人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6</t>
   </si>
   <si>
-    <t>羅德島</t>
+    <t>罗德岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E9%9A%86</t>
@@ -569,7 +569,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%81%E6%9E%B6</t>
   </si>
   <si>
-    <t>綁架</t>
+    <t>绑架</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%85%B0%E7%89%B9</t>
@@ -587,7 +587,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E4%B9%9F%E7%B4%8D</t>
   </si>
   <si>
-    <t>維也納</t>
+    <t>维也纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%BA%E6%9C%AF%E5%8F%B2%E5%8D%9A%E7%89%A9%E9%A6%86</t>
@@ -659,7 +659,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%B4%9B%E7%8B%84%E7%83%8F%E6%96%AF%C2%B7%E6%99%AE%E7%88%BE%E5%96%80</t>
   </si>
   <si>
-    <t>克洛狄烏斯·普爾喀</t>
+    <t>克洛狄乌斯·普尔喀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%AF%94%E5%88%A9%E4%BA%9A%E5%8D%8A%E5%B2%9B</t>
@@ -671,7 +671,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E7%9B%A7%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>高盧戰爭</t>
+    <t>高卢战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%8D%A2%E6%88%98%E8%AE%B0</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%B4%E4%BA%BA%E6%B4%BE</t>
   </si>
   <si>
-    <t>貴人派</t>
+    <t>贵人派</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E6%8F%90%E4%BA%9A</t>
@@ -701,13 +701,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E5%8D%91%E6%96%AF%E5%B1%B1</t>
   </si>
   <si>
-    <t>阿爾卑斯山</t>
+    <t>阿尔卑斯山</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E9%87%8C%E4%BA%9A</t>
@@ -737,9 +737,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%B0%94%E5%8D%91%E6%96%AF%E5%B1%B1</t>
   </si>
   <si>
-    <t>阿尔卑斯山</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%B1%E8%8C%B5%E6%B2%B3</t>
   </si>
   <si>
@@ -803,7 +800,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E5%9F%8E</t>
   </si>
   <si>
-    <t>亞歷山大城</t>
+    <t>亚历山大城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E5%8E%86%E5%B1%B1%E5%A4%A7%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -833,7 +830,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A0%E5%8D%9C%E5%B8%AB</t>
   </si>
   <si>
-    <t>占卜師</t>
+    <t>占卜师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB</t>
@@ -845,7 +842,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E6%9D%B1%E5%B0%BC</t>
   </si>
   <si>
-    <t>安東尼</t>
+    <t>安东尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%96%E4%B9%8C%E6%96%AF%C2%B7%E5%8D%A1%E8%A5%BF%E4%B9%8C%E6%96%AF%C2%B7%E6%9C%97%E5%9F%BA%E5%8A%AA%E6%96%AF</t>
@@ -869,7 +866,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8E%8E%E5%A3%AB%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>莎士比亞</t>
+    <t>莎士比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E8%BF%A6</t>
@@ -905,7 +902,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%88%BA%E6%AE%BA</t>
   </si>
   <si>
-    <t>刺殺</t>
+    <t>刺杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E9%9A%BE</t>
@@ -917,37 +914,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%80%E6%AE%BA</t>
   </si>
   <si>
-    <t>謀殺</t>
+    <t>谋杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%B2%E7%99%87%E7%97%87</t>
   </si>
   <si>
-    <t>癲癇症</t>
+    <t>癫痫症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%8F%A4%E6%96%AF%E9%83%BD</t>
   </si>
   <si>
-    <t>奧古斯都</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>羅馬帝國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>德意志帝國</t>
+    <t>德意志帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>俄羅斯帝國</t>
+    <t>俄罗斯帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%AF%E6%92%92_(%E5%A4%B4%E8%A1%94)</t>
@@ -983,7 +974,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%91%E6%96%AF%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>卑斯尼亞</t>
+    <t>卑斯尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A2%E6%AF%94%E8%82%AF%E6%B2%B3</t>
@@ -1007,7 +998,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%BA%97%E6%AD%90%E4%BD%A9%E7%89%B9%E6%8B%89%E4%B8%83%E4%B8%96</t>
   </si>
   <si>
-    <t>克麗歐佩特拉七世</t>
+    <t>克丽欧佩特拉七世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%9D%9E</t>
@@ -1049,9 +1040,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%A1%9E%E7%BE%85</t>
   </si>
   <si>
-    <t>西塞羅</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E6%88%98%E8%AE%B0</t>
   </si>
   <si>
@@ -1067,19 +1055,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%84%92%E7%95%A5%E6%9B%86</t>
   </si>
   <si>
-    <t>儒略曆</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%92%92%E5%BD%97%E6%98%9F</t>
   </si>
   <si>
-    <t>凱撒彗星</t>
+    <t>凯撒彗星</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E6%92%92%E5%A4%A7%E5%B8%9D_(%E6%88%B2%E5%8A%87)</t>
   </si>
   <si>
-    <t>凱撒大帝 (戲劇)</t>
+    <t>凯撒大帝 (戏剧)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E9%A9%AC%E6%89%A7%E6%94%BF%E5%AE%98%E5%88%97%E8%A1%A8_(%E5%85%B1%E5%92%8C%E5%9B%BD%E6%97%B6%E6%9C%9F)</t>
@@ -1091,7 +1076,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1109,7 +1094,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1127,7 +1112,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1151,19 +1136,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%A3%AB%E6%AD%B7%E5%8F%B2%E8%BE%AD%E5%85%B8</t>
   </si>
   <si>
-    <t>瑞士歷史辭典</t>
+    <t>瑞士历史辞典</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -5047,7 +5032,7 @@
         <v>239</v>
       </c>
       <c r="F121" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5073,10 +5058,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>2</v>
@@ -5102,10 +5087,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5131,10 +5116,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5160,10 +5145,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5189,10 +5174,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5218,10 +5203,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>250</v>
+      </c>
+      <c r="F127" t="s">
         <v>251</v>
-      </c>
-      <c r="F127" t="s">
-        <v>252</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5247,10 +5232,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>252</v>
+      </c>
+      <c r="F128" t="s">
         <v>253</v>
-      </c>
-      <c r="F128" t="s">
-        <v>254</v>
       </c>
       <c r="G128" t="n">
         <v>3</v>
@@ -5276,10 +5261,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>254</v>
+      </c>
+      <c r="F129" t="s">
         <v>255</v>
-      </c>
-      <c r="F129" t="s">
-        <v>256</v>
       </c>
       <c r="G129" t="n">
         <v>2</v>
@@ -5305,10 +5290,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
+        <v>256</v>
+      </c>
+      <c r="F130" t="s">
         <v>257</v>
-      </c>
-      <c r="F130" t="s">
-        <v>258</v>
       </c>
       <c r="G130" t="n">
         <v>3</v>
@@ -5334,10 +5319,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
+        <v>258</v>
+      </c>
+      <c r="F131" t="s">
         <v>259</v>
-      </c>
-      <c r="F131" t="s">
-        <v>260</v>
       </c>
       <c r="G131" t="n">
         <v>3</v>
@@ -5363,10 +5348,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
+        <v>260</v>
+      </c>
+      <c r="F132" t="s">
         <v>261</v>
-      </c>
-      <c r="F132" t="s">
-        <v>262</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5392,10 +5377,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
+        <v>262</v>
+      </c>
+      <c r="F133" t="s">
         <v>263</v>
-      </c>
-      <c r="F133" t="s">
-        <v>264</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5421,10 +5406,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>264</v>
+      </c>
+      <c r="F134" t="s">
         <v>265</v>
-      </c>
-      <c r="F134" t="s">
-        <v>266</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5450,10 +5435,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
+        <v>266</v>
+      </c>
+      <c r="F135" t="s">
         <v>267</v>
-      </c>
-      <c r="F135" t="s">
-        <v>268</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -5479,10 +5464,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>268</v>
+      </c>
+      <c r="F136" t="s">
         <v>269</v>
-      </c>
-      <c r="F136" t="s">
-        <v>270</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5537,10 +5522,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>270</v>
+      </c>
+      <c r="F138" t="s">
         <v>271</v>
-      </c>
-      <c r="F138" t="s">
-        <v>272</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5566,10 +5551,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>272</v>
+      </c>
+      <c r="F139" t="s">
         <v>273</v>
-      </c>
-      <c r="F139" t="s">
-        <v>274</v>
       </c>
       <c r="G139" t="n">
         <v>3</v>
@@ -5595,10 +5580,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
+        <v>274</v>
+      </c>
+      <c r="F140" t="s">
         <v>275</v>
-      </c>
-      <c r="F140" t="s">
-        <v>276</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5624,10 +5609,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
+        <v>276</v>
+      </c>
+      <c r="F141" t="s">
         <v>277</v>
-      </c>
-      <c r="F141" t="s">
-        <v>278</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5653,10 +5638,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
+        <v>278</v>
+      </c>
+      <c r="F142" t="s">
         <v>279</v>
-      </c>
-      <c r="F142" t="s">
-        <v>280</v>
       </c>
       <c r="G142" t="n">
         <v>4</v>
@@ -5682,10 +5667,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
+        <v>280</v>
+      </c>
+      <c r="F143" t="s">
         <v>281</v>
-      </c>
-      <c r="F143" t="s">
-        <v>282</v>
       </c>
       <c r="G143" t="n">
         <v>8</v>
@@ -5711,10 +5696,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
+        <v>282</v>
+      </c>
+      <c r="F144" t="s">
         <v>283</v>
-      </c>
-      <c r="F144" t="s">
-        <v>284</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5740,10 +5725,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
+        <v>284</v>
+      </c>
+      <c r="F145" t="s">
         <v>285</v>
-      </c>
-      <c r="F145" t="s">
-        <v>286</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5769,10 +5754,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
+        <v>286</v>
+      </c>
+      <c r="F146" t="s">
         <v>287</v>
-      </c>
-      <c r="F146" t="s">
-        <v>288</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5798,10 +5783,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
+        <v>288</v>
+      </c>
+      <c r="F147" t="s">
         <v>289</v>
-      </c>
-      <c r="F147" t="s">
-        <v>290</v>
       </c>
       <c r="G147" t="n">
         <v>5</v>
@@ -5827,10 +5812,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
+        <v>290</v>
+      </c>
+      <c r="F148" t="s">
         <v>291</v>
-      </c>
-      <c r="F148" t="s">
-        <v>292</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -5856,10 +5841,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
+        <v>292</v>
+      </c>
+      <c r="F149" t="s">
         <v>293</v>
-      </c>
-      <c r="F149" t="s">
-        <v>294</v>
       </c>
       <c r="G149" t="n">
         <v>5</v>
@@ -5885,10 +5870,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
+        <v>294</v>
+      </c>
+      <c r="F150" t="s">
         <v>295</v>
-      </c>
-      <c r="F150" t="s">
-        <v>296</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -5914,10 +5899,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
+        <v>296</v>
+      </c>
+      <c r="F151" t="s">
         <v>297</v>
-      </c>
-      <c r="F151" t="s">
-        <v>298</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5943,10 +5928,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
+        <v>298</v>
+      </c>
+      <c r="F152" t="s">
         <v>299</v>
-      </c>
-      <c r="F152" t="s">
-        <v>300</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -5972,10 +5957,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
+        <v>300</v>
+      </c>
+      <c r="F153" t="s">
         <v>301</v>
-      </c>
-      <c r="F153" t="s">
-        <v>302</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6001,10 +5986,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F154" t="s">
-        <v>304</v>
+        <v>60</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -6030,10 +6015,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>306</v>
+        <v>102</v>
       </c>
       <c r="G155" t="n">
         <v>5</v>
@@ -6059,10 +6044,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F156" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6088,10 +6073,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F157" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6117,10 +6102,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F158" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G158" t="n">
         <v>181</v>
@@ -6146,10 +6131,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F159" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G159" t="n">
         <v>7</v>
@@ -6175,10 +6160,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F160" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G160" t="n">
         <v>2</v>
@@ -6204,10 +6189,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F161" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6233,10 +6218,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F162" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6262,10 +6247,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F163" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6291,10 +6276,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F164" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6320,10 +6305,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F165" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6349,10 +6334,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F166" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G166" t="n">
         <v>11</v>
@@ -6378,10 +6363,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F167" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -6407,10 +6392,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F168" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6436,10 +6421,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F169" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6465,10 +6450,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F170" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6494,10 +6479,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F171" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6523,10 +6508,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F172" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6552,10 +6537,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F173" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6610,10 +6595,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>210</v>
       </c>
       <c r="G175" t="n">
         <v>2</v>
@@ -6639,10 +6624,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6668,10 +6653,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>2</v>
@@ -6697,10 +6682,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>94</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -6726,10 +6711,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6784,10 +6769,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6813,10 +6798,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="G182" t="n">
         <v>7</v>
@@ -6871,10 +6856,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
+        <v>292</v>
+      </c>
+      <c r="F184" t="s">
         <v>293</v>
-      </c>
-      <c r="F184" t="s">
-        <v>294</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -6900,10 +6885,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="F185" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="G185" t="n">
         <v>5</v>
@@ -6929,10 +6914,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="F186" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -6958,10 +6943,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="F187" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6987,10 +6972,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="F188" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7016,10 +7001,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="F189" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7045,10 +7030,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="F190" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7074,10 +7059,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F191" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7103,10 +7088,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="F192" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7132,10 +7117,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="F193" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7161,10 +7146,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="F194" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7190,10 +7175,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="F195" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7219,10 +7204,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F196" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7248,10 +7233,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="F197" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7277,10 +7262,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7306,10 +7291,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="F199" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G199" t="n">
         <v>2</v>
@@ -7335,10 +7320,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F200" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7364,10 +7349,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F201" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G201" t="n">
         <v>9</v>
@@ -7393,10 +7378,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F202" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -7422,10 +7407,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="F203" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="G203" t="n">
         <v>2</v>

--- a/xlsx/恺撒_intext.xlsx
+++ b/xlsx/恺撒_intext.xlsx
@@ -29,7 +29,7 @@
     <t>凯撒 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_政治學_恺撒</t>
+    <t>体育运动_体育运动_古罗马_恺撒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%B5%AE%E5%AE%AE</t>
@@ -5804,7 +5804,7 @@
         <v>290</v>
       </c>
       <c r="G147" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H147" t="s">
         <v>4</v>
@@ -7370,7 +7370,7 @@
         <v>390</v>
       </c>
       <c r="G201" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
